--- a/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="92">
   <si>
     <t>GRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -716,26 +717,29 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>163800</v>
+      </c>
+      <c r="E8" s="3">
         <v>167200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>168200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>150800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>194100</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -751,26 +755,29 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>149200</v>
+      </c>
+      <c r="E9" s="3">
         <v>161300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>159500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>148400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>184300</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,26 +793,29 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E10" s="3">
         <v>5900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9800</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -821,8 +831,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +849,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,8 +885,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,20 +923,23 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -932,8 +952,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -941,8 +961,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,8 +999,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -988,26 +1014,27 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>180200</v>
+      </c>
+      <c r="E17" s="3">
         <v>185500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>176100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>162100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>199100</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,26 +1050,29 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-18300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1088,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1073,8 +1106,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1090,8 +1124,8 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1108,26 +1142,29 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E21" s="3">
         <v>4300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,8 +1180,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1178,26 +1218,29 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5100</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1213,26 +1256,29 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1248,8 +1294,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1283,26 +1332,29 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1318,26 +1370,29 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,8 +1408,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1388,8 +1446,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,8 +1484,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1458,8 +1522,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1493,8 +1560,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1510,8 +1580,8 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1528,26 +1598,29 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,8 +1636,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1598,26 +1674,29 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1633,31 +1712,34 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1673,8 +1755,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1688,8 +1773,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1703,20 +1789,21 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3">
         <v>37900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>35600</v>
       </c>
-      <c r="F41" s="3">
-        <v>54100</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1729,17 +1816,20 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
+      <c r="K41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1773,20 +1863,23 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>45500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>69200</v>
       </c>
-      <c r="F43" s="3">
-        <v>72700</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,29 +1892,32 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3">
         <v>8600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10800</v>
       </c>
-      <c r="F44" s="3">
-        <v>10900</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1834,29 +1930,32 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7300</v>
       </c>
-      <c r="F45" s="3">
-        <v>1100</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1869,29 +1968,32 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3">
         <v>92700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>122900</v>
       </c>
-      <c r="F46" s="3">
-        <v>138900</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1904,29 +2006,32 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
+      <c r="K46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>52100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>54600</v>
       </c>
-      <c r="F47" s="3">
-        <v>65300</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1939,29 +2044,32 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3">
         <v>355400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>249600</v>
       </c>
-      <c r="F48" s="3">
-        <v>262400</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1974,29 +2082,32 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
         <v>7600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7400</v>
       </c>
-      <c r="F49" s="3">
-        <v>7700</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,17 +2120,20 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2053,8 +2167,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2088,20 +2205,23 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
         <v>14200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13100</v>
       </c>
-      <c r="F52" s="3">
-        <v>1000</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2114,17 +2234,20 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2158,20 +2281,23 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3">
         <v>521900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>447600</v>
       </c>
-      <c r="F54" s="3">
-        <v>475300</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,17 +2310,20 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
+      <c r="K54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2208,8 +2337,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2223,20 +2353,21 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
         <v>27200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>22400</v>
       </c>
-      <c r="F57" s="3">
-        <v>20400</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,29 +2380,32 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>46100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>18300</v>
       </c>
-      <c r="F58" s="3">
-        <v>19200</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2284,29 +2418,32 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3">
         <v>15400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16000</v>
       </c>
-      <c r="F59" s="3">
-        <v>22800</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,29 +2456,32 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3">
         <v>88700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>56700</v>
       </c>
-      <c r="F60" s="3">
-        <v>62400</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2354,29 +2494,32 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
+      <c r="K60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>154200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>96100</v>
       </c>
-      <c r="F61" s="3">
-        <v>108100</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2398,19 +2541,22 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>2300</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E62" s="3">
         <v>2300</v>
       </c>
       <c r="F62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2424,17 +2570,20 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2468,8 +2617,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2503,8 +2655,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2538,20 +2693,23 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
         <v>245200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>155100</v>
       </c>
-      <c r="F66" s="3">
-        <v>172900</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2564,17 +2722,20 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
+      <c r="K66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2588,8 +2749,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2623,8 +2785,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2658,8 +2823,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2693,8 +2861,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2728,20 +2899,23 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>-43900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24000</v>
       </c>
-      <c r="F72" s="3">
-        <v>-19600</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2754,17 +2928,20 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2798,8 +2975,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2833,8 +3013,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2868,20 +3051,23 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>276700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>292500</v>
       </c>
-      <c r="F76" s="3">
-        <v>302400</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2894,17 +3080,20 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
+      <c r="K76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2938,31 +3127,34 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2978,26 +3170,29 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3013,8 +3208,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3028,26 +3226,27 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>22600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10200</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,8 +3262,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3098,8 +3300,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3133,8 +3338,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3168,8 +3376,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3203,8 +3414,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3238,26 +3452,29 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-32400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-46200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,8 +3490,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3288,26 +3508,27 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3323,8 +3544,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3358,8 +3582,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3393,26 +3620,29 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E94" s="3">
         <v>31200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>33200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3428,8 +3658,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3443,8 +3676,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3458,11 +3692,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1700</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3478,8 +3712,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3513,8 +3750,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3548,8 +3788,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3583,26 +3826,29 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E100" s="3">
         <v>2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-31300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>19500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3618,26 +3864,29 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-1300</v>
       </c>
       <c r="F101" s="3">
         <v>-1300</v>
       </c>
       <c r="G101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3653,26 +3902,29 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6800</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3686,6 +3938,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
   <si>
     <t>GRIN</t>
   </si>
@@ -970,25 +970,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>180200</v>
+        <v>188300</v>
       </c>
       <c r="E17" s="3">
         <v>185500</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-16400</v>
+        <v>-24500</v>
       </c>
       <c r="E18" s="3">
         <v>-18300</v>
@@ -1151,7 +1151,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-29900</v>
+        <v>1700</v>
       </c>
       <c r="E21" s="3">
         <v>4300</v>
@@ -1227,7 +1227,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-16400</v>
+        <v>-24500</v>
       </c>
       <c r="E23" s="3">
         <v>-18300</v>
@@ -1341,7 +1341,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-16400</v>
+        <v>-24500</v>
       </c>
       <c r="E26" s="3">
         <v>-19000</v>
@@ -1379,7 +1379,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-16400</v>
+        <v>-24500</v>
       </c>
       <c r="E27" s="3">
         <v>-19000</v>
@@ -1607,7 +1607,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-16400</v>
+        <v>-24500</v>
       </c>
       <c r="E33" s="3">
         <v>-19000</v>
@@ -1683,7 +1683,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-16400</v>
+        <v>-24500</v>
       </c>
       <c r="E35" s="3">
         <v>-19000</v>
@@ -1795,8 +1795,8 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>35600</v>
       </c>
       <c r="E41" s="3">
         <v>37900</v>
@@ -1804,8 +1804,8 @@
       <c r="F41" s="3">
         <v>35600</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+      <c r="G41" s="3">
+        <v>54100</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1871,8 +1871,8 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>38900</v>
       </c>
       <c r="E43" s="3">
         <v>45500</v>
@@ -1880,8 +1880,8 @@
       <c r="F43" s="3">
         <v>69200</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>72700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1909,8 +1909,8 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>12200</v>
       </c>
       <c r="E44" s="3">
         <v>8600</v>
@@ -1918,8 +1918,8 @@
       <c r="F44" s="3">
         <v>10800</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+      <c r="G44" s="3">
+        <v>10900</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1947,8 +1947,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>4900</v>
       </c>
       <c r="E45" s="3">
         <v>700</v>
@@ -1956,8 +1956,8 @@
       <c r="F45" s="3">
         <v>7300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>1100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1985,8 +1985,8 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>91500</v>
       </c>
       <c r="E46" s="3">
         <v>92700</v>
@@ -1994,8 +1994,8 @@
       <c r="F46" s="3">
         <v>122900</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+      <c r="G46" s="3">
+        <v>138900</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -2023,8 +2023,8 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>55100</v>
       </c>
       <c r="E47" s="3">
         <v>52100</v>
@@ -2032,8 +2032,8 @@
       <c r="F47" s="3">
         <v>54600</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>65300</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2061,8 +2061,8 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>360400</v>
       </c>
       <c r="E48" s="3">
         <v>355400</v>
@@ -2070,8 +2070,8 @@
       <c r="F48" s="3">
         <v>249600</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>262400</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2099,8 +2099,8 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>1100</v>
       </c>
       <c r="E49" s="3">
         <v>7600</v>
@@ -2108,8 +2108,8 @@
       <c r="F49" s="3">
         <v>7400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>7700</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2213,8 +2213,8 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>10900</v>
       </c>
       <c r="E52" s="3">
         <v>14200</v>
@@ -2222,8 +2222,8 @@
       <c r="F52" s="3">
         <v>13100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>1000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2289,8 +2289,8 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>519100</v>
       </c>
       <c r="E54" s="3">
         <v>521900</v>
@@ -2298,8 +2298,8 @@
       <c r="F54" s="3">
         <v>447600</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+      <c r="G54" s="3">
+        <v>475300</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2359,8 +2359,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>28300</v>
       </c>
       <c r="E57" s="3">
         <v>27200</v>
@@ -2368,8 +2368,8 @@
       <c r="F57" s="3">
         <v>22400</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>20400</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2397,8 +2397,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>45000</v>
       </c>
       <c r="E58" s="3">
         <v>46100</v>
@@ -2406,8 +2406,8 @@
       <c r="F58" s="3">
         <v>18300</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>19200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2435,8 +2435,8 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>13500</v>
       </c>
       <c r="E59" s="3">
         <v>15400</v>
@@ -2444,8 +2444,8 @@
       <c r="F59" s="3">
         <v>16000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>22800</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2473,8 +2473,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>86800</v>
       </c>
       <c r="E60" s="3">
         <v>88700</v>
@@ -2482,8 +2482,8 @@
       <c r="F60" s="3">
         <v>56700</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+      <c r="G60" s="3">
+        <v>62400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2512,7 +2512,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>178200</v>
       </c>
       <c r="E61" s="3">
         <v>154200</v>
@@ -2521,7 +2521,7 @@
         <v>96100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>108100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2549,8 +2549,8 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>2100</v>
       </c>
       <c r="E62" s="3">
         <v>2300</v>
@@ -2558,8 +2558,8 @@
       <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>2500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2701,8 +2701,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>267100</v>
       </c>
       <c r="E66" s="3">
         <v>245200</v>
@@ -2710,8 +2710,8 @@
       <c r="F66" s="3">
         <v>155100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+      <c r="G66" s="3">
+        <v>172900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2907,8 +2907,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-64400</v>
       </c>
       <c r="E72" s="3">
         <v>-43900</v>
@@ -2916,8 +2916,8 @@
       <c r="F72" s="3">
         <v>-24000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+      <c r="G72" s="3">
+        <v>-19600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -3059,8 +3059,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>251900</v>
       </c>
       <c r="E76" s="3">
         <v>276700</v>
@@ -3068,8 +3068,8 @@
       <c r="F76" s="3">
         <v>292500</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+      <c r="G76" s="3">
+        <v>302400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -3179,7 +3179,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-16400</v>
+        <v>-24500</v>
       </c>
       <c r="E81" s="3">
         <v>-19000</v>
@@ -3232,8 +3232,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>26200</v>
       </c>
       <c r="E83" s="3">
         <v>22600</v>
@@ -3514,8 +3514,8 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>

--- a/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="92">
   <si>
     <t>GRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -720,29 +721,32 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>167100</v>
+      </c>
+      <c r="E8" s="3">
         <v>163800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>167200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>168200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>150800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>194100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -758,29 +762,32 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>158200</v>
+      </c>
+      <c r="E9" s="3">
         <v>149200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>161300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>159500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>148400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>184300</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -796,29 +803,32 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E10" s="3">
         <v>14600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9800</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -834,8 +844,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -850,8 +863,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -888,8 +902,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,23 +943,26 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -955,8 +975,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -964,17 +984,20 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
         <v>600</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
@@ -990,8 +1013,8 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1002,8 +1025,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1015,29 +1041,30 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E17" s="3">
         <v>188300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>185500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>176100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>162100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>199100</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1053,29 +1080,32 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-24500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-18300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1091,8 +1121,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1107,8 +1140,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1127,8 +1161,8 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1145,29 +1179,32 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E21" s="3">
         <v>1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,8 +1220,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1221,29 +1261,32 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-24500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5100</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,29 +1302,32 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1297,8 +1343,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1335,29 +1384,32 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7000</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1373,29 +1425,32 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-24500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7000</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1466,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1449,8 +1507,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1548,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1525,8 +1589,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1563,8 +1630,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1583,8 +1653,8 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1601,29 +1671,32 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-24500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7000</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1639,8 +1712,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1677,29 +1753,32 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-24500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7000</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,34 +1794,37 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1840,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1774,8 +1859,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1790,26 +1876,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E41" s="3">
         <v>35600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>54100</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1819,17 +1906,20 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
+      <c r="L41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1866,26 +1956,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E43" s="3">
         <v>38900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>45500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>69200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>72700</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1895,35 +1988,38 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E44" s="3">
         <v>12200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10900</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1933,35 +2029,38 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
         <v>4900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1971,35 +2070,38 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E46" s="3">
         <v>91500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>92700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>122900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>138900</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,35 +2111,38 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
+      <c r="L46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E47" s="3">
         <v>55100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>52100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>54600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>65300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2047,35 +2152,38 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>538600</v>
+      </c>
+      <c r="E48" s="3">
         <v>360400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>355400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>249600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>262400</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,35 +2193,38 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E49" s="3">
         <v>1100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,17 +2234,20 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2170,8 +2284,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2208,26 +2325,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E52" s="3">
         <v>10900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2237,17 +2357,20 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2284,26 +2407,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>651000</v>
+      </c>
+      <c r="E54" s="3">
         <v>519100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>521900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>447600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>475300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2313,17 +2439,20 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
+      <c r="L54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2338,8 +2467,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2354,26 +2484,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E57" s="3">
         <v>28300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20400</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2383,35 +2514,38 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E58" s="3">
         <v>45000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>46100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>18300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>19200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2421,35 +2555,38 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E59" s="3">
         <v>13500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22800</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,35 +2596,38 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>135100</v>
+      </c>
+      <c r="E60" s="3">
         <v>86800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>88700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>56700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>62400</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2497,35 +2637,38 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
+      <c r="L60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>238300</v>
+      </c>
+      <c r="E61" s="3">
         <v>178200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>154200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>96100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>108100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2544,26 +2687,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2100</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2300</v>
       </c>
       <c r="F62" s="3">
         <v>2300</v>
       </c>
       <c r="G62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H62" s="3">
         <v>2500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2573,17 +2719,20 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2620,8 +2769,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2658,8 +2810,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2696,26 +2851,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>417400</v>
+      </c>
+      <c r="E66" s="3">
         <v>267100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>245200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>155100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>172900</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2725,17 +2883,20 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
+      <c r="L66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2750,8 +2911,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2788,8 +2950,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2826,8 +2991,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2864,8 +3032,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2902,26 +3073,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-75500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-64400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-43900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19600</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,17 +3105,20 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2978,8 +3155,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3016,8 +3196,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3054,26 +3237,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>233600</v>
+      </c>
+      <c r="E76" s="3">
         <v>251900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>276700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>292500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>302400</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3083,17 +3269,20 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
+      <c r="L76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3130,34 +3319,37 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3173,29 +3365,32 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-24500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7000</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3211,8 +3406,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3227,29 +3425,30 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E83" s="3">
         <v>26200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3265,8 +3464,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3303,8 +3505,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3341,8 +3546,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3379,8 +3587,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3417,8 +3628,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3455,29 +3669,32 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-32400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-46200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3493,8 +3710,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3509,8 +3729,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3518,20 +3739,20 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3547,8 +3768,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3585,8 +3809,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3623,29 +3850,32 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E94" s="3">
         <v>4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>31200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>33200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3891,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3677,8 +3910,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3695,11 +3929,11 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1700</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -3715,8 +3949,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3753,8 +3990,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3791,8 +4031,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3829,29 +4072,32 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E100" s="3">
         <v>16600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-31300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>19500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,29 +4113,32 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-1300</v>
       </c>
       <c r="G101" s="3">
         <v>-1300</v>
       </c>
       <c r="H101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3905,29 +4154,32 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-16900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6800</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3941,6 +4193,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
   <si>
     <t>GRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -724,32 +725,35 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>112100</v>
+      </c>
+      <c r="E8" s="3">
         <v>167100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>163800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>167200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>168200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>150800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>194100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -765,32 +769,35 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>105900</v>
+      </c>
+      <c r="E9" s="3">
         <v>158200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>149200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>161300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>159500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>148400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>184300</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -806,32 +813,35 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E10" s="3">
         <v>8900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9800</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -847,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -864,8 +877,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -905,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -946,26 +963,29 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="3">
         <v>4300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>1600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -978,8 +998,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -987,20 +1007,23 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>600</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1016,8 +1039,8 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1028,8 +1051,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1042,32 +1068,33 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>140600</v>
+      </c>
+      <c r="E17" s="3">
         <v>179000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>188300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>185500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>176100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>162100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>199100</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,32 +1110,35 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-24500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,8 +1154,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1141,8 +1174,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1164,8 +1198,8 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1182,32 +1216,35 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E21" s="3">
         <v>13900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1260,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1264,32 +1304,35 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-24500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5100</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1305,32 +1348,35 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1346,8 +1392,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1387,32 +1436,35 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-24500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1428,32 +1480,35 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-24500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-19000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,8 +1524,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1510,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1551,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1592,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1633,8 +1700,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1656,8 +1726,8 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1674,32 +1744,35 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-24500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,8 +1788,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1756,32 +1832,35 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-24500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1797,37 +1876,40 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1843,8 +1925,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1860,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1877,29 +1963,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E41" s="3">
         <v>44700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>35600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>35600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>54100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1909,17 +1996,20 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1959,29 +2049,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E43" s="3">
         <v>39200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>38900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>45500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>69200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>72700</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1991,38 +2084,41 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E44" s="3">
         <v>7800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10900</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2032,38 +2128,41 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2073,38 +2172,41 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E46" s="3">
         <v>95600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>91500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>92700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>122900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>138900</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2114,38 +2216,41 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E47" s="3">
         <v>3900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>55100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>52100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>54600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>65300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2155,38 +2260,41 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>524400</v>
+      </c>
+      <c r="E48" s="3">
         <v>538600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>360400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>355400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>249600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>262400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,38 +2304,41 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2237,17 +2348,20 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2287,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2328,29 +2445,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E52" s="3">
         <v>11700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2360,17 +2480,20 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2410,29 +2533,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>622100</v>
+      </c>
+      <c r="E54" s="3">
         <v>651000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>519100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>521900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>447600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>475300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2442,17 +2568,20 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2468,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2485,29 +2615,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E57" s="3">
         <v>24100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>28300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2517,38 +2648,41 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E58" s="3">
         <v>101600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>45000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>46100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>18300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>19200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2558,38 +2692,41 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E59" s="3">
         <v>9400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>22800</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2599,38 +2736,41 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E60" s="3">
         <v>135100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>86800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>88700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>56700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>62400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2640,38 +2780,41 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>248200</v>
+      </c>
+      <c r="E61" s="3">
         <v>238300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>178200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>154200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>96100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>108100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2690,29 +2833,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2300</v>
       </c>
       <c r="G62" s="3">
         <v>2300</v>
       </c>
       <c r="H62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I62" s="3">
         <v>2500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2722,17 +2868,20 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2772,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2813,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2854,29 +3009,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>409900</v>
+      </c>
+      <c r="E66" s="3">
         <v>417400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>267100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>245200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>155100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>172900</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2886,17 +3044,20 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2912,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2953,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2994,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3035,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3076,29 +3247,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-108400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-75500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-64400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-43900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,17 +3282,20 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3158,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3199,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3240,29 +3423,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>212200</v>
+      </c>
+      <c r="E76" s="3">
         <v>233600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>251900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>276700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>292500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>302400</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3272,17 +3458,20 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3322,37 +3511,40 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3368,32 +3560,35 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-24500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3409,8 +3604,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3426,32 +3624,33 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>25700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>26200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3467,8 +3666,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3508,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3549,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3590,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3631,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3672,32 +3886,35 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E89" s="3">
         <v>48800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-23100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-32400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-46200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3713,8 +3930,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3730,32 +3950,33 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3771,8 +3992,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3812,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3853,32 +4080,35 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>31200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>33200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3894,8 +4124,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3911,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3932,11 +4166,11 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1700</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -3952,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3993,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4034,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4075,32 +4318,35 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>16600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-31300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>19500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4116,32 +4362,35 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-1300</v>
       </c>
       <c r="H101" s="3">
         <v>-1300</v>
       </c>
       <c r="I101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4157,32 +4406,35 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>6800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-16900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6800</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4196,6 +4448,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
   <si>
     <t>GRIN</t>
   </si>
@@ -972,10 +972,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1800</v>
+        <v>14600</v>
       </c>
       <c r="E14" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1015,8 +1015,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>600</v>
       </c>
       <c r="E15" s="3">
         <v>400</v>
@@ -1225,7 +1225,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-29000</v>
+        <v>-2700</v>
       </c>
       <c r="E21" s="3">
         <v>13900</v>
@@ -3256,7 +3256,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-108400</v>
+        <v>-99800</v>
       </c>
       <c r="E72" s="3">
         <v>-75500</v>
@@ -3630,8 +3630,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>25800</v>
       </c>
       <c r="E83" s="3">
         <v>25700</v>
@@ -3956,8 +3956,8 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E101" s="3">
         <v>-1100</v>
@@ -4415,7 +4415,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="E102" s="3">
         <v>6800</v>

--- a/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="92">
   <si>
     <t>GRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,35 +729,38 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>112100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>167100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>163800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>167200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>168200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>150800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>194100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -772,35 +776,38 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>125100</v>
+      </c>
+      <c r="E9" s="3">
         <v>105900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>158200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>149200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>161300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>159500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>148400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>184300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -816,35 +823,38 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
         <v>6200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -860,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,8 +891,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -922,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,29 +983,32 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>14600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1001,8 +1021,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1010,23 +1030,26 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>600</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1042,8 +1065,8 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,35 +1095,36 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>140600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>179000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>188300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>185500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>176100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>162100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>199100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1113,35 +1140,38 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-28500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-11900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-24500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,13 +1208,14 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1201,8 +1235,8 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1219,35 +1253,38 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,8 +1300,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1307,35 +1347,38 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-24500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,35 +1394,38 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1395,8 +1441,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,35 +1488,38 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-24500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1483,35 +1535,38 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-24500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-19000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,13 +1770,16 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1729,8 +1799,8 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1747,35 +1817,38 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-24500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-19000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,35 +1911,38 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-24500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-19000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,40 +1958,43 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,32 +2050,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E41" s="3">
         <v>41300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>35600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>54100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1999,17 +2086,20 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,32 +2142,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>28400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>39200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>38900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>45500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>69200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>72700</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2087,41 +2180,44 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3">
         <v>8700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10900</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2131,41 +2227,44 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
         <v>4300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2175,41 +2274,44 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E46" s="3">
         <v>82600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>95600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>91500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>92700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>122900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>138900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2219,41 +2321,44 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>3300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>55100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>52100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>54600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>65300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2263,41 +2368,44 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>465900</v>
+      </c>
+      <c r="E48" s="3">
         <v>524400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>538600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>360400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>355400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>249600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>262400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2307,41 +2415,44 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
         <v>1400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2351,17 +2462,20 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,32 +2565,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E52" s="3">
         <v>10400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2483,17 +2603,20 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,32 +2659,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>584900</v>
+      </c>
+      <c r="E54" s="3">
         <v>622100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>651000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>519100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>521900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>447600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>475300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2571,17 +2697,20 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,32 +2746,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
         <v>27400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,41 +2782,44 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>81500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>101600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>45000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>46100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>18300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>19200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,41 +2829,44 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E59" s="3">
         <v>9000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>22800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,41 +2876,44 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E60" s="3">
         <v>117900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>135100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>86800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>88700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>62400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2783,41 +2923,44 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>248200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>238300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>178200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>154200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>96100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>108100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2836,32 +2979,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>202600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2300</v>
       </c>
       <c r="H62" s="3">
         <v>2300</v>
       </c>
       <c r="I62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J62" s="3">
         <v>2500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2871,17 +3017,20 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,32 +3167,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>347900</v>
+      </c>
+      <c r="E66" s="3">
         <v>409900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>417400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>267100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>245200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>155100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>172900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3047,17 +3205,20 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,32 +3421,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>-99800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-75500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-64400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-43900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,17 +3459,20 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,32 +3609,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>236900</v>
+      </c>
+      <c r="E76" s="3">
         <v>212200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>233600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>251900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>276700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>292500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>302400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3461,17 +3647,20 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,40 +3703,43 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,35 +3755,38 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-24500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-19000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3607,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,35 +3823,36 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>25800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>26200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3669,8 +3868,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,35 +4103,38 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
         <v>21600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>48800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-32400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-46200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3933,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,13 +4171,14 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3966,20 +4187,20 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3995,8 +4216,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,35 +4310,38 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>3100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>31200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>6800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>33200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4127,8 +4357,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,35 +4564,38 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
         <v>-26800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>16600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-31300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>19500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,35 +4611,38 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-1300</v>
       </c>
       <c r="I101" s="3">
         <v>-1300</v>
       </c>
       <c r="J101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4409,35 +4658,38 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-16900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4451,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="92">
   <si>
     <t>GRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,58 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
-        <v>43465</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,38 +732,41 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>135100</v>
       </c>
       <c r="E8" s="3">
+        <v>159400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>71800</v>
+      </c>
+      <c r="G8" s="3">
         <v>112100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>167100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>163800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>167200</v>
       </c>
-      <c r="I8" s="3">
-        <v>168200</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>150800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>194100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,38 +782,41 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E9" s="3">
         <v>125100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>58000</v>
+      </c>
+      <c r="G9" s="3">
         <v>105900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>158200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>149200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>161300</v>
       </c>
-      <c r="I9" s="3">
-        <v>159500</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>148400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>184300</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -826,38 +832,41 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>62000</v>
       </c>
       <c r="E10" s="3">
+        <v>34300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>13800</v>
+      </c>
+      <c r="G10" s="3">
         <v>6200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>8900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>14600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5900</v>
       </c>
-      <c r="I10" s="3">
-        <v>8700</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +882,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +904,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,8 +952,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,28 +1002,31 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>14600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>4200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1024,8 +1043,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1033,28 +1052,31 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
-        <v>600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>400</v>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G15" s="3">
         <v>600</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+      <c r="H15" s="3">
+        <v>400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>600</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -1068,8 +1090,8 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1080,8 +1102,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,38 +1121,39 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>86000</v>
       </c>
       <c r="E17" s="3">
+        <v>137700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>68400</v>
+      </c>
+      <c r="G17" s="3">
         <v>140600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>179000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>188300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>185500</v>
       </c>
-      <c r="I17" s="3">
-        <v>176100</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>162100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>199100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,38 +1169,41 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>49100</v>
       </c>
       <c r="E18" s="3">
+        <v>21700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-28500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-11900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-24500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-18300</v>
       </c>
-      <c r="I18" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1219,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,13 +1241,14 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1238,8 +1271,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1256,38 +1289,41 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F21" s="3">
-        <v>13900</v>
+      <c r="D21" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>1700</v>
+        <v>23000</v>
       </c>
       <c r="H21" s="3">
-        <v>4300</v>
+        <v>-34900</v>
       </c>
       <c r="I21" s="3">
-        <v>-400</v>
+        <v>24300</v>
       </c>
       <c r="J21" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,8 +1339,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1350,38 +1389,41 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>49100</v>
       </c>
       <c r="E23" s="3">
+        <v>21700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-28500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-11900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-24500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-18300</v>
       </c>
-      <c r="I23" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,38 +1439,41 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,8 +1489,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,38 +1539,41 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>49100</v>
       </c>
       <c r="E26" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-28800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-12300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-24500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-19000</v>
       </c>
-      <c r="I26" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,38 +1589,41 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>44000</v>
       </c>
       <c r="E27" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-28300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-10500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-24500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-19000</v>
       </c>
-      <c r="I27" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1639,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1689,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1739,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1789,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,13 +1839,16 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1802,8 +1871,8 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1820,38 +1889,41 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>44000</v>
       </c>
       <c r="E33" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-28300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-10500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-24500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-19000</v>
       </c>
-      <c r="I33" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1939,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,38 +1989,41 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>44000</v>
       </c>
       <c r="E35" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-28300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-10500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-24500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-19000</v>
       </c>
-      <c r="I35" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,43 +2039,46 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
-        <v>43465</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2094,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2116,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,35 +2136,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E41" s="3">
         <v>60700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3">
         <v>41300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>44700</v>
-      </c>
-      <c r="G41" s="3">
-        <v>35600</v>
-      </c>
-      <c r="H41" s="3">
-        <v>37900</v>
       </c>
       <c r="I41" s="3">
         <v>35600</v>
       </c>
       <c r="J41" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K41" s="3">
         <v>54100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2089,17 +2175,20 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,35 +2234,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>34400</v>
       </c>
       <c r="E43" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
         <v>28400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>39200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>38900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>45500</v>
       </c>
-      <c r="I43" s="3">
-        <v>69200</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>72700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2183,44 +2275,47 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>12600</v>
       </c>
       <c r="E44" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3">
         <v>8700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>7800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>12200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>8600</v>
       </c>
-      <c r="I44" s="3">
-        <v>10800</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>10900</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,44 +2325,47 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>5800</v>
       </c>
       <c r="E45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3">
         <v>4300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>4900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
-        <v>7300</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2277,44 +2375,47 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>131300</v>
+      </c>
+      <c r="E46" s="3">
         <v>106800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3">
         <v>82600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>95600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>91500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>92700</v>
       </c>
-      <c r="I46" s="3">
-        <v>122900</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>138900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,44 +2425,47 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>3200</v>
       </c>
       <c r="E47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>3300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>3900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>55100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>52100</v>
       </c>
-      <c r="I47" s="3">
-        <v>54600</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>65300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,44 +2475,47 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>483600</v>
+      </c>
+      <c r="E48" s="3">
         <v>465900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3">
         <v>524400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>538600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>360400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>355400</v>
       </c>
-      <c r="I48" s="3">
-        <v>249600</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>262400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2418,44 +2525,47 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>300</v>
       </c>
       <c r="E49" s="3">
+        <v>300</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3">
         <v>1400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>7600</v>
       </c>
-      <c r="I49" s="3">
-        <v>7400</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2465,17 +2575,20 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2634,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,35 +2684,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6600</v>
+        <v>8600</v>
       </c>
       <c r="E52" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
         <v>10400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>11700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>10900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>14200</v>
       </c>
-      <c r="I52" s="3">
-        <v>13100</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2606,17 +2725,20 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,35 +2784,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>627000</v>
+      </c>
+      <c r="E54" s="3">
         <v>584900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="3">
         <v>622100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>651000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>519100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>521900</v>
       </c>
-      <c r="I54" s="3">
-        <v>447600</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>475300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2700,17 +2825,20 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2856,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,35 +2876,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>31500</v>
       </c>
       <c r="E57" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3">
         <v>27400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>24100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>28300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>27200</v>
       </c>
-      <c r="I57" s="3">
-        <v>22400</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2785,44 +2915,47 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>60200</v>
       </c>
       <c r="E58" s="3">
+        <v>55700</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>81500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>101600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>45000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>46100</v>
       </c>
-      <c r="I58" s="3">
-        <v>18300</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>19200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2832,44 +2965,47 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42500</v>
+        <v>10100</v>
       </c>
       <c r="E59" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3">
         <v>9000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>9400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>13500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>15400</v>
       </c>
-      <c r="I59" s="3">
-        <v>16000</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>22800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2879,44 +3015,47 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>101800</v>
+      </c>
+      <c r="E60" s="3">
         <v>98100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="3">
         <v>117900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>135100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>86800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>88700</v>
       </c>
-      <c r="I60" s="3">
-        <v>56700</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>62400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2926,44 +3065,47 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>234000</v>
       </c>
       <c r="E61" s="3">
+        <v>200600</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>248200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>238300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>178200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>154200</v>
       </c>
-      <c r="I61" s="3">
-        <v>96100</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>108100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2982,35 +3124,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>202600</v>
+        <v>2300</v>
       </c>
       <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2300</v>
       </c>
-      <c r="I62" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3020,17 +3165,20 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3224,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3274,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,35 +3324,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>338100</v>
+      </c>
+      <c r="E66" s="3">
         <v>347900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="3">
         <v>409900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>417400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>267100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>245200</v>
       </c>
-      <c r="I66" s="3">
-        <v>155100</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>172900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3208,17 +3365,20 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3396,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3444,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3494,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3544,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,35 +3594,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-31700</v>
       </c>
       <c r="E72" s="3">
+        <v>-77500</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3">
         <v>-99800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-75500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-64400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-43900</v>
       </c>
-      <c r="I72" s="3">
-        <v>-24000</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3462,17 +3635,20 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3694,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3744,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,35 +3794,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>289000</v>
+      </c>
+      <c r="E76" s="3">
         <v>236900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="3">
         <v>212200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>233600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>251900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>276700</v>
       </c>
-      <c r="I76" s="3">
-        <v>292500</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>302400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,17 +3835,20 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,43 +3894,46 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
-        <v>43465</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,38 +3949,41 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>44000</v>
       </c>
       <c r="E81" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-28300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-10500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-24500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-19000</v>
       </c>
-      <c r="I81" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +3999,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,38 +4021,39 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3">
-        <v>25800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>25700</v>
+      <c r="D83" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3">
-        <v>26200</v>
+        <v>51500</v>
       </c>
       <c r="H83" s="3">
-        <v>22600</v>
+        <v>-23000</v>
       </c>
       <c r="I83" s="3">
-        <v>7500</v>
+        <v>48800</v>
       </c>
       <c r="J83" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K83" s="3">
         <v>6800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +4069,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4119,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4169,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4219,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4269,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,38 +4319,41 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3">
-        <v>21600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>48800</v>
+      <c r="D89" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>-23100</v>
+        <v>70400</v>
       </c>
       <c r="H89" s="3">
-        <v>-32400</v>
+        <v>104400</v>
       </c>
       <c r="I89" s="3">
-        <v>8900</v>
+        <v>-55600</v>
       </c>
       <c r="J89" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-46200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4369,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,38 +4391,39 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4219,8 +4439,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4489,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,38 +4539,41 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-25600</v>
+      <c r="D94" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>4000</v>
+        <v>-22600</v>
       </c>
       <c r="H94" s="3">
-        <v>31200</v>
+        <v>-60800</v>
       </c>
       <c r="I94" s="3">
-        <v>6800</v>
+        <v>35200</v>
       </c>
       <c r="J94" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K94" s="3">
         <v>33200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4360,8 +4589,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4611,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4659,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4709,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4759,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,38 +4809,41 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-26800</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-15200</v>
+      <c r="D100" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>16600</v>
+        <v>-42000</v>
       </c>
       <c r="H100" s="3">
-        <v>2800</v>
+        <v>-34600</v>
       </c>
       <c r="I100" s="3">
-        <v>-31300</v>
+        <v>19400</v>
       </c>
       <c r="J100" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K100" s="3">
         <v>19500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,38 +4859,41 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3">
-        <v>700</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-1100</v>
+      <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="H101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4661,38 +4909,41 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="F102" s="3">
-        <v>6800</v>
+      <c r="D102" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>-2600</v>
+        <v>5400</v>
       </c>
       <c r="H102" s="3">
-        <v>1600</v>
+        <v>7700</v>
       </c>
       <c r="I102" s="3">
-        <v>-16900</v>
+        <v>-1000</v>
       </c>
       <c r="J102" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K102" s="3">
         <v>5200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4957,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="92">
   <si>
     <t>GRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,61 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -735,41 +735,44 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>135100</v>
+        <v>142500</v>
       </c>
       <c r="E8" s="3">
+        <v>313400</v>
+      </c>
+      <c r="F8" s="3">
         <v>159400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>71800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>112100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>167100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>163800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>167200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>150800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>194100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -785,41 +788,44 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>73100</v>
+        <v>75700</v>
       </c>
       <c r="E9" s="3">
+        <v>203200</v>
+      </c>
+      <c r="F9" s="3">
         <v>125100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>58000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>105900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>158200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>149200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>161300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>148400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>184300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -835,41 +841,44 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>62000</v>
+        <v>66800</v>
       </c>
       <c r="E10" s="3">
+        <v>110200</v>
+      </c>
+      <c r="F10" s="3">
         <v>34300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>13800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -885,8 +894,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -905,8 +917,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -955,8 +968,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,8 +1021,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1019,17 +1038,17 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>14600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1046,8 +1065,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1055,8 +1074,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1069,18 +1091,18 @@
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
         <v>600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>600</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1115,8 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1105,8 +1127,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,41 +1147,42 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>86000</v>
+        <v>89600</v>
       </c>
       <c r="E17" s="3">
+        <v>233700</v>
+      </c>
+      <c r="F17" s="3">
         <v>137700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>68400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>140600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>179000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>188300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>185500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>162100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>199100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1172,41 +1198,44 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>49100</v>
+        <v>52900</v>
       </c>
       <c r="E18" s="3">
+        <v>79700</v>
+      </c>
+      <c r="F18" s="3">
         <v>21700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-28500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-24500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,8 +1251,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,8 +1274,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1274,8 +1307,8 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1292,41 +1325,44 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>64900</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>68800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>125700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>23000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-34900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1342,8 +1378,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1392,41 +1431,44 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>49100</v>
+        <v>52800</v>
       </c>
       <c r="E23" s="3">
+        <v>79700</v>
+      </c>
+      <c r="F23" s="3">
         <v>21700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-28500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-24500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1442,41 +1484,44 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1492,8 +1537,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,41 +1590,44 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>49100</v>
+        <v>52900</v>
       </c>
       <c r="E26" s="3">
+        <v>79800</v>
+      </c>
+      <c r="F26" s="3">
         <v>24200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-28800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-24500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-19000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1592,41 +1643,44 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>44000</v>
+        <v>52900</v>
       </c>
       <c r="E27" s="3">
+        <v>69200</v>
+      </c>
+      <c r="F27" s="3">
         <v>19800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-28300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-24500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-19000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1642,8 +1696,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,31 +1749,34 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-3100</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1742,8 +1802,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1855,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1842,8 +1908,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1874,8 +1943,8 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1892,41 +1961,44 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>44000</v>
+        <v>52800</v>
       </c>
       <c r="E33" s="3">
+        <v>66100</v>
+      </c>
+      <c r="F33" s="3">
         <v>19800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-28300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-24500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1942,8 +2014,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1992,41 +2067,44 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>44000</v>
+        <v>52800</v>
       </c>
       <c r="E35" s="3">
+        <v>66100</v>
+      </c>
+      <c r="F35" s="3">
         <v>19800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-28300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-24500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,46 +2120,49 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2178,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2201,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,19 +2222,20 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>107100</v>
+      </c>
+      <c r="E41" s="3">
         <v>78500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>60700</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G41" s="3">
         <v>41300</v>
@@ -2164,11 +2250,11 @@
         <v>37900</v>
       </c>
       <c r="K41" s="3">
+        <v>37900</v>
+      </c>
+      <c r="L41" s="3">
         <v>54100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2178,17 +2264,20 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2237,19 +2326,22 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E43" s="3">
         <v>34400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>31000</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G43" s="3">
         <v>28400</v>
@@ -2264,11 +2356,11 @@
         <v>45500</v>
       </c>
       <c r="K43" s="3">
+        <v>45500</v>
+      </c>
+      <c r="L43" s="3">
         <v>72700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,28 +2370,31 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E44" s="3">
         <v>12600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12700</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G44" s="3">
         <v>8700</v>
@@ -2314,11 +2409,11 @@
         <v>8600</v>
       </c>
       <c r="K44" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L44" s="3">
         <v>10900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2328,28 +2423,31 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E45" s="3">
         <v>5800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G45" s="3">
         <v>4300</v>
@@ -2364,11 +2462,11 @@
         <v>700</v>
       </c>
       <c r="K45" s="3">
+        <v>700</v>
+      </c>
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2378,28 +2476,31 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>161500</v>
+      </c>
+      <c r="E46" s="3">
         <v>131300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>106800</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G46" s="3">
         <v>82600</v>
@@ -2414,11 +2515,11 @@
         <v>92700</v>
       </c>
       <c r="K46" s="3">
+        <v>92700</v>
+      </c>
+      <c r="L46" s="3">
         <v>138900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,28 +2529,31 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3200</v>
+        <v>4100</v>
       </c>
       <c r="E47" s="3">
         <v>3200</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>3200</v>
       </c>
       <c r="G47" s="3">
         <v>3300</v>
@@ -2464,11 +2568,11 @@
         <v>52100</v>
       </c>
       <c r="K47" s="3">
+        <v>52100</v>
+      </c>
+      <c r="L47" s="3">
         <v>65300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2478,28 +2582,31 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>469900</v>
+      </c>
+      <c r="E48" s="3">
         <v>483600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>465900</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G48" s="3">
         <v>524400</v>
@@ -2514,11 +2621,11 @@
         <v>355400</v>
       </c>
       <c r="K48" s="3">
+        <v>355400</v>
+      </c>
+      <c r="L48" s="3">
         <v>262400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,28 +2635,31 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3">
         <v>300</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>300</v>
       </c>
       <c r="G49" s="3">
         <v>1400</v>
@@ -2564,11 +2674,11 @@
         <v>7600</v>
       </c>
       <c r="K49" s="3">
+        <v>7600</v>
+      </c>
+      <c r="L49" s="3">
         <v>7700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,17 +2688,20 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2750,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,19 +2803,22 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8600</v>
+        <v>9400</v>
       </c>
       <c r="E52" s="3">
         <v>8600</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>8600</v>
       </c>
       <c r="G52" s="3">
         <v>10400</v>
@@ -2714,11 +2833,11 @@
         <v>14200</v>
       </c>
       <c r="K52" s="3">
+        <v>14200</v>
+      </c>
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2728,17 +2847,20 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,19 +2909,22 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>645200</v>
+      </c>
+      <c r="E54" s="3">
         <v>627000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>584900</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G54" s="3">
         <v>622100</v>
@@ -2814,11 +2939,11 @@
         <v>521900</v>
       </c>
       <c r="K54" s="3">
+        <v>521900</v>
+      </c>
+      <c r="L54" s="3">
         <v>475300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2828,17 +2953,20 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2857,8 +2985,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2877,19 +3006,20 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E57" s="3">
         <v>31500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29200</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G57" s="3">
         <v>27400</v>
@@ -2904,11 +3034,11 @@
         <v>27200</v>
       </c>
       <c r="K57" s="3">
+        <v>27200</v>
+      </c>
+      <c r="L57" s="3">
         <v>20400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2918,28 +3048,31 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E58" s="3">
         <v>60200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>55700</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>81500</v>
@@ -2954,11 +3087,11 @@
         <v>46100</v>
       </c>
       <c r="K58" s="3">
+        <v>46100</v>
+      </c>
+      <c r="L58" s="3">
         <v>19200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,28 +3101,31 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E59" s="3">
         <v>10100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13300</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G59" s="3">
         <v>9000</v>
@@ -3004,11 +3140,11 @@
         <v>15400</v>
       </c>
       <c r="K59" s="3">
+        <v>15400</v>
+      </c>
+      <c r="L59" s="3">
         <v>22800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3018,28 +3154,31 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E60" s="3">
         <v>101800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>98100</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G60" s="3">
         <v>117900</v>
@@ -3054,11 +3193,11 @@
         <v>88700</v>
       </c>
       <c r="K60" s="3">
+        <v>88700</v>
+      </c>
+      <c r="L60" s="3">
         <v>62400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3068,28 +3207,31 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>223500</v>
+      </c>
+      <c r="E61" s="3">
         <v>234000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>200600</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>248200</v>
@@ -3104,11 +3246,11 @@
         <v>154200</v>
       </c>
       <c r="K61" s="3">
+        <v>154200</v>
+      </c>
+      <c r="L61" s="3">
         <v>108100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3127,19 +3269,22 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2000</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G62" s="3">
         <v>2000</v>
@@ -3154,11 +3299,11 @@
         <v>2300</v>
       </c>
       <c r="K62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L62" s="3">
         <v>2500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,17 +3313,20 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,8 +3375,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3428,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3327,19 +3481,22 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>325500</v>
+      </c>
+      <c r="E66" s="3">
         <v>338100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>347900</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G66" s="3">
         <v>409900</v>
@@ -3354,11 +3511,11 @@
         <v>245200</v>
       </c>
       <c r="K66" s="3">
+        <v>245200</v>
+      </c>
+      <c r="L66" s="3">
         <v>172900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3368,17 +3525,20 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3397,8 +3557,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3608,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3661,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3547,8 +3714,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3597,19 +3767,22 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-77500</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G72" s="3">
         <v>-99800</v>
@@ -3624,11 +3797,11 @@
         <v>-43900</v>
       </c>
       <c r="K72" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="L72" s="3">
         <v>-19600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3638,17 +3811,20 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3697,8 +3873,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +3926,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3797,19 +3979,22 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>319600</v>
+      </c>
+      <c r="E76" s="3">
         <v>289000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>236900</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G76" s="3">
         <v>212200</v>
@@ -3824,11 +4009,11 @@
         <v>276700</v>
       </c>
       <c r="K76" s="3">
+        <v>276700</v>
+      </c>
+      <c r="L76" s="3">
         <v>302400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3838,17 +4023,20 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3897,46 +4085,49 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3952,41 +4143,44 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>44000</v>
+        <v>52800</v>
       </c>
       <c r="E81" s="3">
+        <v>66100</v>
+      </c>
+      <c r="F81" s="3">
         <v>19800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-28300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-24500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4196,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,41 +4219,42 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15700</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+        <v>16000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>46000</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
         <v>51500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>-23000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>48800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4072,8 +4270,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4122,8 +4323,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,8 +4376,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4222,8 +4429,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4482,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4322,41 +4535,44 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34500</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+        <v>68300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>136600</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>70400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>104400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-55600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-46200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4372,8 +4588,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4392,41 +4611,42 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4442,8 +4662,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4492,8 +4715,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4542,41 +4768,44 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-46600</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+        <v>47400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-46300</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>-22600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-60800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>35200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>33200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4592,8 +4821,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,8 +4844,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4662,8 +4895,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4712,8 +4948,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4762,8 +5001,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4812,41 +5054,44 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>30500</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+        <v>-87300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-51800</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>-42000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-34600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>19400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>14700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>19500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4862,41 +5107,44 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4912,41 +5160,44 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>18000</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+        <v>28100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>38200</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>5400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4960,6 +5211,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="92">
   <si>
     <t>GRIN</t>
   </si>
@@ -744,10 +744,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>142500</v>
+        <v>89500</v>
       </c>
       <c r="E8" s="3">
-        <v>313400</v>
+        <v>135100</v>
       </c>
       <c r="F8" s="3">
         <v>159400</v>
@@ -797,10 +797,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>75700</v>
+        <v>22700</v>
       </c>
       <c r="E9" s="3">
-        <v>203200</v>
+        <v>73100</v>
       </c>
       <c r="F9" s="3">
         <v>125100</v>
@@ -853,7 +853,7 @@
         <v>66800</v>
       </c>
       <c r="E10" s="3">
-        <v>110200</v>
+        <v>62000</v>
       </c>
       <c r="F10" s="3">
         <v>34300</v>
@@ -1154,10 +1154,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>89600</v>
+        <v>31200</v>
       </c>
       <c r="E17" s="3">
-        <v>233700</v>
+        <v>86000</v>
       </c>
       <c r="F17" s="3">
         <v>137700</v>
@@ -1207,10 +1207,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>52900</v>
+        <v>58300</v>
       </c>
       <c r="E18" s="3">
-        <v>79700</v>
+        <v>49100</v>
       </c>
       <c r="F18" s="3">
         <v>21700</v>
@@ -1334,10 +1334,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>68800</v>
+        <v>74200</v>
       </c>
       <c r="E21" s="3">
-        <v>125700</v>
+        <v>64900</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1440,10 +1440,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>52800</v>
+        <v>58200</v>
       </c>
       <c r="E23" s="3">
-        <v>79700</v>
+        <v>49100</v>
       </c>
       <c r="F23" s="3">
         <v>21700</v>
@@ -1493,10 +1493,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="E24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>-2600</v>
@@ -1599,10 +1599,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>52900</v>
+        <v>56000</v>
       </c>
       <c r="E26" s="3">
-        <v>79800</v>
+        <v>49100</v>
       </c>
       <c r="F26" s="3">
         <v>24200</v>
@@ -1652,10 +1652,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>52900</v>
+        <v>56000</v>
       </c>
       <c r="E27" s="3">
-        <v>69200</v>
+        <v>44000</v>
       </c>
       <c r="F27" s="3">
         <v>19800</v>
@@ -1758,10 +1758,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
@@ -1973,7 +1973,7 @@
         <v>52800</v>
       </c>
       <c r="E33" s="3">
-        <v>66100</v>
+        <v>44000</v>
       </c>
       <c r="F33" s="3">
         <v>19800</v>
@@ -2079,7 +2079,7 @@
         <v>52800</v>
       </c>
       <c r="E35" s="3">
-        <v>66100</v>
+        <v>44000</v>
       </c>
       <c r="F35" s="3">
         <v>19800</v>
@@ -3776,7 +3776,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1000</v>
+        <v>15100</v>
       </c>
       <c r="E72" s="3">
         <v>-31700</v>
@@ -4155,7 +4155,7 @@
         <v>52800</v>
       </c>
       <c r="E81" s="3">
-        <v>66100</v>
+        <v>44000</v>
       </c>
       <c r="F81" s="3">
         <v>19800</v>
@@ -4229,7 +4229,7 @@
         <v>16000</v>
       </c>
       <c r="E83" s="3">
-        <v>46000</v>
+        <v>15700</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -4547,7 +4547,7 @@
         <v>68300</v>
       </c>
       <c r="E89" s="3">
-        <v>136600</v>
+        <v>34500</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -4780,7 +4780,7 @@
         <v>47400</v>
       </c>
       <c r="E94" s="3">
-        <v>-46300</v>
+        <v>-46600</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -5066,7 +5066,7 @@
         <v>-87300</v>
       </c>
       <c r="E100" s="3">
-        <v>-51800</v>
+        <v>30500</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -5119,7 +5119,7 @@
         <v>-200</v>
       </c>
       <c r="E101" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -5172,7 +5172,7 @@
         <v>28100</v>
       </c>
       <c r="E102" s="3">
-        <v>38200</v>
+        <v>18000</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="92">
   <si>
     <t>GRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,69 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -738,47 +740,53 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>161600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>110300</v>
+      </c>
+      <c r="F8" s="3">
         <v>89500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>135100</v>
       </c>
-      <c r="F8" s="3">
-        <v>159400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>71800</v>
-      </c>
       <c r="H8" s="3">
+        <v>109800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>68400</v>
+      </c>
+      <c r="J8" s="3">
         <v>112100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>167100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>163800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>167200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>150800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>194100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -791,47 +799,53 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>69600</v>
+      </c>
+      <c r="F9" s="3">
         <v>22700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>73100</v>
       </c>
-      <c r="F9" s="3">
-        <v>125100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>58000</v>
-      </c>
       <c r="H9" s="3">
+        <v>74200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>55800</v>
+      </c>
+      <c r="J9" s="3">
         <v>105900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>158200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>149200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>161300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>148400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>184300</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -844,47 +858,53 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>40700</v>
+      </c>
+      <c r="F10" s="3">
         <v>66800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>62000</v>
       </c>
-      <c r="F10" s="3">
-        <v>34300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>13800</v>
-      </c>
       <c r="H10" s="3">
+        <v>35600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>12600</v>
+      </c>
+      <c r="J10" s="3">
         <v>6200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>8900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>14600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>9800</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -897,8 +917,14 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,8 +944,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -971,8 +999,14 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,8 +1058,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1041,20 +1081,20 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>14600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>4200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1068,17 +1108,23 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1094,20 +1140,20 @@
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="3">
-        <v>600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>400</v>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J15" s="3">
         <v>600</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
+      <c r="K15" s="3">
+        <v>400</v>
+      </c>
+      <c r="L15" s="3">
+        <v>600</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
@@ -1118,11 +1164,11 @@
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1130,8 +1176,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1148,47 +1200,49 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>104700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>81100</v>
+      </c>
+      <c r="F17" s="3">
         <v>31200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>86000</v>
       </c>
-      <c r="F17" s="3">
-        <v>137700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>68400</v>
-      </c>
       <c r="H17" s="3">
+        <v>82600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>65300</v>
+      </c>
+      <c r="J17" s="3">
         <v>140600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>179000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>188300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>185500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>162100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>199100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1201,47 +1255,53 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F18" s="3">
         <v>58300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>49100</v>
       </c>
-      <c r="F18" s="3">
-        <v>21700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3400</v>
-      </c>
       <c r="H18" s="3">
+        <v>27200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-28500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-11900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-24500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-18300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-11300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-5000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1254,8 +1314,14 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1275,8 +1341,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1310,11 +1378,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1328,47 +1396,53 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>73200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>46400</v>
+      </c>
+      <c r="F21" s="3">
         <v>74200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>64900</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>23000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-34900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>24300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-10000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>5100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1381,8 +1455,14 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,47 +1514,53 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F23" s="3">
         <v>58200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>49100</v>
       </c>
-      <c r="F23" s="3">
-        <v>21700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>3500</v>
-      </c>
       <c r="H23" s="3">
+        <v>27200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-28500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-11900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-24500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-18300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-11300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1487,47 +1573,53 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>2300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-2600</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>500</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>500</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1540,8 +1632,14 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1593,47 +1691,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F26" s="3">
         <v>56000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>49100</v>
       </c>
-      <c r="F26" s="3">
-        <v>24200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>3300</v>
-      </c>
       <c r="H26" s="3">
+        <v>27300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-28800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-12300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-24500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-19000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-13500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1646,47 +1750,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F27" s="3">
         <v>56000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>44000</v>
       </c>
-      <c r="F27" s="3">
-        <v>19800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>2400</v>
-      </c>
       <c r="H27" s="3">
+        <v>22800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-28300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-10500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-24500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-19000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-13500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-7000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1699,8 +1809,14 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1752,37 +1868,43 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
         <v>-3200</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
+      <c r="H29" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>200</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1805,8 +1927,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1858,8 +1986,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1911,8 +2045,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1946,11 +2086,11 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1964,47 +2104,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F33" s="3">
         <v>52800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>44000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>19800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-28300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-10500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-24500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-19000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-13500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-7000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2017,8 +2163,14 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2070,47 +2222,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F35" s="3">
         <v>52800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>44000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>19800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-28300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-10500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-24500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-19000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-13500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-7000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,52 +2281,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2181,8 +2345,14 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2202,8 +2372,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2223,61 +2395,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>165400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>106500</v>
+      </c>
+      <c r="F41" s="3">
         <v>107100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>78500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>60700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>41300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>44700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>35600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>37900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>37900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>54100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2329,326 +2509,368 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>38600</v>
+      </c>
+      <c r="F43" s="3">
         <v>35100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>34400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>31000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>28400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>39200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>38900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>45500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>45500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>72700</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F44" s="3">
         <v>13900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>12600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>12700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>8700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>7800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>12200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>8600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>8600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>10900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F45" s="3">
         <v>5400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>4300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>229400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>172500</v>
+      </c>
+      <c r="F46" s="3">
         <v>161500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>131300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>106800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>82600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>95600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>91500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>92700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>92700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>138900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F47" s="3">
         <v>4100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>3200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>3200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>3300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>3900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>55100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>52100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>52100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>65300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>443800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>470100</v>
+      </c>
+      <c r="F48" s="3">
         <v>469900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>483600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>465900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>524400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>538600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>360400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>355400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>355400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>262400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2656,52 +2878,58 @@
         <v>200</v>
       </c>
       <c r="E49" s="3">
+        <v>200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>200</v>
+      </c>
+      <c r="G49" s="3">
         <v>300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>7600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>7600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>7700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2753,8 +2981,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2806,61 +3040,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F52" s="3">
         <v>9400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>8600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>10400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>11700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>10900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>14200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>14200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2912,61 +3158,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>684800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>656700</v>
+      </c>
+      <c r="F54" s="3">
         <v>645200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>627000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>584900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>622100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>651000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>519100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>521900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>521900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>475300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2986,8 +3244,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3007,256 +3267,282 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F57" s="3">
         <v>33900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>31500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>29200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>27400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>24100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>28300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>27200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>27200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>20400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>65900</v>
+      </c>
+      <c r="F58" s="3">
         <v>55400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>60200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>55700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>81500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>101600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>45000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>46100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>46100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>19200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F59" s="3">
         <v>11100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>10100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>13300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>9000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>13500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>15400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>15400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>22800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>119300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>97700</v>
+      </c>
+      <c r="F60" s="3">
         <v>100300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>101800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>98100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>117900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>135100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>86800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>88700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>88700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>62400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>176200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>214800</v>
+      </c>
+      <c r="F61" s="3">
         <v>223500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>234000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>200600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>248200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>238300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>178200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>154200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>154200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>108100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3272,61 +3558,73 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3378,8 +3676,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3431,8 +3735,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3484,61 +3794,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>297400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>314500</v>
+      </c>
+      <c r="F66" s="3">
         <v>325500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>338100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>347900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>409900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>417400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>267100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>245200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>245200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>172900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3558,8 +3880,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3611,8 +3935,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3664,8 +3994,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3717,8 +4053,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3770,61 +4112,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F72" s="3">
         <v>15100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-31700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-77500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-99800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-75500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-64400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-43900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-43900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-19600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3876,8 +4230,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3929,8 +4289,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3982,61 +4348,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>387500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>342100</v>
+      </c>
+      <c r="F76" s="3">
         <v>319600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>289000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>236900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>212200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>233600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>251900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>276700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>276700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>302400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4088,52 +4466,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4146,47 +4530,53 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F81" s="3">
         <v>52800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>44000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>19800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-28300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-10500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-24500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-19000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-13500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-7000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4199,8 +4589,14 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4220,47 +4616,49 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F83" s="3">
         <v>16000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>15700</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>51500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>-23000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>48800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>8300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>6800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>10200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4273,8 +4671,14 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4326,8 +4730,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4379,8 +4789,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4432,8 +4848,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4485,8 +4907,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4538,47 +4966,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F89" s="3">
         <v>68300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>34500</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3">
         <v>70400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>104400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-55600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-46200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-6000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4591,8 +5025,14 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4612,8 +5052,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4621,38 +5063,38 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>100</v>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4665,8 +5107,14 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4718,8 +5166,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4771,47 +5225,53 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>47400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-46600</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
         <v>-22600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-60800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>35200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-8900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>33200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4824,8 +5284,14 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4845,16 +5311,18 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-8900</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-13700</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4898,8 +5366,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4951,8 +5425,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5004,8 +5484,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5057,47 +5543,53 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-87300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>30500</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>-42000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-34600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>19400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>14700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>19500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5110,47 +5602,53 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5163,47 +5661,53 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F102" s="3">
         <v>28100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>18000</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
         <v>5400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>7700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>13400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>5200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-6800</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5214,6 +5718,12 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="92">
   <si>
     <t>GRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,76 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -746,53 +747,59 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>81400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>107200</v>
+      </c>
+      <c r="F8" s="3">
         <v>161600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>110300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>89500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>135100</v>
       </c>
-      <c r="H8" s="3">
-        <v>109800</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>178300</v>
+      </c>
+      <c r="K8" s="3">
         <v>68400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>112100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>167100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>163800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>167200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>150800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>194100</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
@@ -805,53 +812,59 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>68700</v>
+      </c>
+      <c r="F9" s="3">
         <v>97000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>69600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>22700</v>
       </c>
-      <c r="G9" s="3">
-        <v>73100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>74200</v>
-      </c>
       <c r="I9" s="3">
+        <v>73200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>132900</v>
+      </c>
+      <c r="K9" s="3">
         <v>55800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>105900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>158200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>149200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>161300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>148400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>184300</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
@@ -864,53 +877,59 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F10" s="3">
         <v>64600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>40700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>66800</v>
       </c>
-      <c r="G10" s="3">
-        <v>62000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>35600</v>
-      </c>
       <c r="I10" s="3">
+        <v>61900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>45400</v>
+      </c>
+      <c r="K10" s="3">
         <v>12600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>6200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>8900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>14600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>5900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>9800</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,8 +942,14 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -946,8 +971,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1005,8 +1032,14 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1064,8 +1097,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1087,20 +1126,20 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>14600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>4200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1114,17 +1153,23 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1146,20 +1191,20 @@
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="3">
-        <v>600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>400</v>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>600</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
+      <c r="M15" s="3">
+        <v>400</v>
+      </c>
+      <c r="N15" s="3">
+        <v>600</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
@@ -1170,11 +1215,11 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1182,8 +1227,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1202,53 +1253,55 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>85000</v>
+      </c>
+      <c r="F17" s="3">
         <v>104700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>81100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>31200</v>
       </c>
-      <c r="G17" s="3">
-        <v>86000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>82600</v>
-      </c>
       <c r="I17" s="3">
+        <v>85800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>147900</v>
+      </c>
+      <c r="K17" s="3">
         <v>65300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>140600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>179000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>188300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>185500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>162100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>199100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,53 +1314,59 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F18" s="3">
         <v>56900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>29200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>58300</v>
       </c>
-      <c r="G18" s="3">
-        <v>49100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>27200</v>
-      </c>
       <c r="I18" s="3">
+        <v>49300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K18" s="3">
         <v>3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-28500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-11900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-24500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-18300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-11300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-5000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1320,8 +1379,14 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1343,8 +1408,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1384,11 +1451,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1402,53 +1469,59 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>38800</v>
+      </c>
+      <c r="F21" s="3">
         <v>73200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>46400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>74200</v>
       </c>
-      <c r="G21" s="3">
-        <v>64900</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>65100</v>
       </c>
       <c r="J21" s="3">
+        <v>60600</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>23000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-34900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>24300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-10000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-4500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>5100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1461,8 +1534,14 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1520,53 +1599,59 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F23" s="3">
         <v>56900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>29200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>58200</v>
       </c>
-      <c r="G23" s="3">
-        <v>49100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>27200</v>
-      </c>
       <c r="I23" s="3">
+        <v>49300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K23" s="3">
         <v>3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-28500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-11900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-24500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-18300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-11300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-5100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1579,53 +1664,59 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>2300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1638,8 +1729,14 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1697,53 +1794,59 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F26" s="3">
         <v>56800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>29000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>56000</v>
       </c>
-      <c r="G26" s="3">
-        <v>49100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>27300</v>
-      </c>
       <c r="I26" s="3">
+        <v>49300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K26" s="3">
         <v>3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-28800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-12300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-24500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-19000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-13500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-7000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1756,53 +1859,59 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F27" s="3">
         <v>56800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>29000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>56000</v>
       </c>
-      <c r="G27" s="3">
-        <v>44000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>22800</v>
-      </c>
       <c r="I27" s="3">
+        <v>44200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K27" s="3">
         <v>2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-28300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-10500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-24500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-19000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-13500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-7000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1815,8 +1924,14 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1874,8 +1989,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1886,31 +2007,31 @@
         <v>3</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
         <v>-3200</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-3000</v>
-      </c>
       <c r="I29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K29" s="3">
         <v>200</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1933,8 +2054,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1992,8 +2119,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2051,8 +2184,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2092,11 +2231,11 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -2110,53 +2249,59 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F33" s="3">
         <v>56800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>29000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>52800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>44000</v>
       </c>
-      <c r="H33" s="3">
-        <v>19800</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K33" s="3">
         <v>2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-28300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-10500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-24500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-19000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-13500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-7000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2169,8 +2314,14 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2228,53 +2379,59 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F35" s="3">
         <v>56800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>29000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>52800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>44000</v>
       </c>
-      <c r="H35" s="3">
-        <v>19800</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K35" s="3">
         <v>2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-28300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-10500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-24500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-19000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-13500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-7000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,58 +2444,64 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2351,8 +2514,14 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2374,8 +2543,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2397,67 +2568,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>146300</v>
+      </c>
+      <c r="F41" s="3">
         <v>165400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>106500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>107100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>78500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>60700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>41300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>44700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>35600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>37900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>37900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>54100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2515,362 +2694,404 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F43" s="3">
         <v>41300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>38600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>35100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>34400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>31000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>28400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>39200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>38900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>45500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>45500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>72700</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>18100</v>
+      </c>
+      <c r="F44" s="3">
         <v>20100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>16800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>13900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>12600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>12700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>8700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>7800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>12200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>8600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>8600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>10900</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>10600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>4900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>105200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>203700</v>
+      </c>
+      <c r="F46" s="3">
         <v>229400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>172500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>161500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>131300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>106800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>82600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>95600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>91500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>92700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>92700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>138900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="E47" s="3">
         <v>5500</v>
       </c>
       <c r="F47" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H47" s="3">
         <v>4100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>3200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>3200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>55100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>52100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>52100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>65300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>433600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>436200</v>
+      </c>
+      <c r="F48" s="3">
         <v>443800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>470100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>469900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>483600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>465900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>524400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>538600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>360400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>355400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>355400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>262400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2884,52 +3105,58 @@
         <v>200</v>
       </c>
       <c r="G49" s="3">
+        <v>200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>200</v>
+      </c>
+      <c r="I49" s="3">
         <v>300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>7600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>7600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>7700</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2987,8 +3214,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3046,67 +3279,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F52" s="3">
         <v>6400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>8300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>9400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>8600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>10400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>11700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>10900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>14200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>14200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3164,67 +3409,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>549200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>651700</v>
+      </c>
+      <c r="F54" s="3">
         <v>684800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>656700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>645200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>627000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>584900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>622100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>651000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>519100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>521900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>521900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>475300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3246,8 +3503,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3269,286 +3528,312 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F57" s="3">
         <v>27700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>24400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>33900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>31500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>29200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>27400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>24100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>28300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>27200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>27200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>20400</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>55700</v>
+      </c>
+      <c r="F58" s="3">
         <v>76600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>65900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>55400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>60200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>55700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>81500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>101600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>45000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>46100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>46100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>19200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F59" s="3">
         <v>15000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>11100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>10100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>13300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>9000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>9400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>13500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>15400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>15400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>22800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>90600</v>
+      </c>
+      <c r="F60" s="3">
         <v>119300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>97700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>100300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>101800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>98100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>117900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>135100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>86800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>88700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>88700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>62400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S60" s="3">
-        <v>0</v>
-      </c>
-      <c r="T60" s="3">
-        <v>0</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>169700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>170100</v>
+      </c>
+      <c r="F61" s="3">
         <v>176200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>214800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>223500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>234000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>200600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>248200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>238300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>178200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>154200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>154200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>108100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3564,67 +3849,79 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3682,8 +3979,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3741,8 +4044,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3800,67 +4109,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>261800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>262100</v>
+      </c>
+      <c r="F66" s="3">
         <v>297400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>314500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>325500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>338100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>347900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>409900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>417400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>267100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>245200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>245200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>172900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S66" s="3">
-        <v>0</v>
-      </c>
-      <c r="T66" s="3">
-        <v>0</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3882,8 +4203,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3941,8 +4264,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4000,8 +4329,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4059,8 +4394,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4118,67 +4459,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>68800</v>
+      </c>
+      <c r="F72" s="3">
         <v>73100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>21500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>15100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-31700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-77500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-99800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-75500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-64400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-43900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-43900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-19600</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
-      <c r="T72" s="3">
-        <v>0</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4236,8 +4589,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4295,8 +4654,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4354,67 +4719,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>287400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>389500</v>
+      </c>
+      <c r="F76" s="3">
         <v>387500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>342100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>319600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>289000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>236900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>212200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>233600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>251900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>276700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>276700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>302400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4472,58 +4849,64 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4536,53 +4919,59 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F81" s="3">
         <v>56800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>29000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>52800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>44000</v>
       </c>
-      <c r="H81" s="3">
-        <v>19800</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K81" s="3">
         <v>2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-28300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-10500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-24500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-19000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-13500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-7000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4595,8 +4984,14 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4618,53 +5013,55 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F83" s="3">
         <v>16300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>17200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>16000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>15700</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3">
+        <v>30200</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>51500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>-23000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>48800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>8300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>6800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>10200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4677,8 +5074,14 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4736,8 +5139,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4795,8 +5204,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4854,8 +5269,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4913,8 +5334,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4972,53 +5399,59 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>30500</v>
+      </c>
+      <c r="F89" s="3">
         <v>109300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>28500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>68300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>34500</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3">
+        <v>102100</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>70400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>104400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-55600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-46200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-6000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5031,8 +5464,14 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5054,8 +5493,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5063,44 +5504,44 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
         <v>300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5113,8 +5554,14 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5172,8 +5619,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5231,53 +5684,59 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>47400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-46600</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3">
+        <v>200</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-22600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-60800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>35200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-8900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>33200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5290,8 +5749,14 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5313,23 +5778,25 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-97400</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-8900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-13700</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -5372,8 +5839,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5431,8 +5904,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5490,8 +5969,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5549,53 +6034,59 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-112600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-51900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-29700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-87300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>30500</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3">
+        <v>-82300</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>-42000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-34600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>19400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>14700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>19500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5608,53 +6099,59 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5667,53 +6164,59 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-94300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="F102" s="3">
         <v>56400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>28100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>18000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>5400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>7700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>13400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>5200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-6800</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5724,6 +6227,12 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="92">
   <si>
     <t>GRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,79 +665,80 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -753,56 +754,59 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E8" s="3">
         <v>81400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>107200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>161600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>110300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>89500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>135100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>178300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>68400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>112100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>167100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>163800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>167200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>150800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>194100</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
@@ -818,56 +822,59 @@
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E9" s="3">
         <v>58400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>68700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>97000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>69600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>22700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>73200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>132900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>55800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>105900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>158200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>149200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>161300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>148400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>184300</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
@@ -883,56 +890,59 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E10" s="3">
         <v>23000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>64600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>40700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>66800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>61900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>45400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9800</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
@@ -948,8 +958,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -973,8 +986,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1038,8 +1052,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1103,8 +1120,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1132,17 +1152,17 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>14600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1159,8 +1179,8 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1168,8 +1188,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1197,18 +1220,18 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
         <v>600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>600</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1221,8 +1244,8 @@
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1233,8 +1256,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1255,56 +1281,57 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>85600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>85000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>104700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>81100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>31200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>85800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>147900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>65300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>140600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>179000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>188300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>185500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>162100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>199100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1320,56 +1347,59 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>56900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>29200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>58300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>49300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>30400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-28500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-24500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-18300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,8 +1415,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1410,13 +1443,14 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1457,8 +1491,8 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1475,56 +1509,59 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>13000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>38800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>73200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>46400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>74200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>65100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>60600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>23000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-34900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>24300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1540,8 +1577,11 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1605,8 +1645,11 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1614,47 +1657,47 @@
         <v>-4200</v>
       </c>
       <c r="E23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F23" s="3">
         <v>22200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>56900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>29200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>58200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>49300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>30400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-28500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-24500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1670,56 +1713,59 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2300</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1900</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1735,8 +1781,11 @@
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1800,56 +1849,59 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>22200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>56800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>29000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>56000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>49300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>30400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-28800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-24500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-19000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1865,56 +1917,59 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>22200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>56800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>29000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>56000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>44200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-28300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-24500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-19000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1930,8 +1985,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1995,46 +2053,49 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
         <v>-3200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-2800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>200</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2060,8 +2121,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2125,8 +2189,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2190,13 +2257,16 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2237,8 +2307,8 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2255,56 +2325,59 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>22200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>56800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>29000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>52800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>44000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-28300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-24500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-19000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2320,8 +2393,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2385,56 +2461,59 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>22200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>56800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>29000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>52800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>44000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-28300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-24500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-19000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2450,61 +2529,64 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2520,8 +2602,11 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2545,8 +2630,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2570,53 +2656,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E41" s="3">
         <v>52200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>146300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>165400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>106500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>107100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>78500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>60700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>44700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>35600</v>
-      </c>
-      <c r="N41" s="3">
-        <v>37900</v>
       </c>
       <c r="O41" s="3">
         <v>37900</v>
       </c>
       <c r="P41" s="3">
+        <v>37900</v>
+      </c>
+      <c r="Q41" s="3">
         <v>54100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2626,17 +2713,20 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2700,53 +2790,56 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E43" s="3">
         <v>37700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>37000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>41300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>38600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>35100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>34400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>31000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>39200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>38900</v>
-      </c>
-      <c r="N43" s="3">
-        <v>45500</v>
       </c>
       <c r="O43" s="3">
         <v>45500</v>
       </c>
       <c r="P43" s="3">
+        <v>45500</v>
+      </c>
+      <c r="Q43" s="3">
         <v>72700</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2756,62 +2849,65 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E44" s="3">
         <v>15300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>18100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>20100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>16800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>12600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>12700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12200</v>
-      </c>
-      <c r="N44" s="3">
-        <v>8600</v>
       </c>
       <c r="O44" s="3">
         <v>8600</v>
       </c>
       <c r="P44" s="3">
+        <v>8600</v>
+      </c>
+      <c r="Q44" s="3">
         <v>10900</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2821,62 +2917,65 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4900</v>
-      </c>
-      <c r="N45" s="3">
-        <v>700</v>
       </c>
       <c r="O45" s="3">
         <v>700</v>
       </c>
       <c r="P45" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2886,62 +2985,65 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>91500</v>
+      </c>
+      <c r="E46" s="3">
         <v>105200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>203700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>229400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>172500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>161500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>131300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>106800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>82600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>95600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>91500</v>
-      </c>
-      <c r="N46" s="3">
-        <v>92700</v>
       </c>
       <c r="O46" s="3">
         <v>92700</v>
       </c>
       <c r="P46" s="3">
+        <v>92700</v>
+      </c>
+      <c r="Q46" s="3">
         <v>138900</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2951,62 +3053,65 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E47" s="3">
         <v>4600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>3200</v>
       </c>
       <c r="J47" s="3">
         <v>3200</v>
       </c>
       <c r="K47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L47" s="3">
         <v>3300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>55100</v>
-      </c>
-      <c r="N47" s="3">
-        <v>52100</v>
       </c>
       <c r="O47" s="3">
         <v>52100</v>
       </c>
       <c r="P47" s="3">
+        <v>52100</v>
+      </c>
+      <c r="Q47" s="3">
         <v>65300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3016,62 +3121,65 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>406700</v>
+      </c>
+      <c r="E48" s="3">
         <v>433600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>436200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>443800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>470100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>469900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>483600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>465900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>524400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>538600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>360400</v>
-      </c>
-      <c r="N48" s="3">
-        <v>355400</v>
       </c>
       <c r="O48" s="3">
         <v>355400</v>
       </c>
       <c r="P48" s="3">
+        <v>355400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>262400</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,17 +3189,20 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3111,32 +3222,32 @@
         <v>200</v>
       </c>
       <c r="I49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
         <v>300</v>
       </c>
       <c r="K49" s="3">
+        <v>300</v>
+      </c>
+      <c r="L49" s="3">
         <v>1400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1100</v>
-      </c>
-      <c r="N49" s="3">
-        <v>7600</v>
       </c>
       <c r="O49" s="3">
         <v>7600</v>
       </c>
       <c r="P49" s="3">
+        <v>7600</v>
+      </c>
+      <c r="Q49" s="3">
         <v>7700</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3146,17 +3257,20 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3220,8 +3334,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3285,8 +3402,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3294,44 +3414,44 @@
         <v>5600</v>
       </c>
       <c r="E52" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F52" s="3">
         <v>6000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>8600</v>
       </c>
       <c r="J52" s="3">
         <v>8600</v>
       </c>
       <c r="K52" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L52" s="3">
         <v>10400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10900</v>
-      </c>
-      <c r="N52" s="3">
-        <v>14200</v>
       </c>
       <c r="O52" s="3">
         <v>14200</v>
       </c>
       <c r="P52" s="3">
+        <v>14200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1000</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3341,17 +3461,20 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3415,53 +3538,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>510400</v>
+      </c>
+      <c r="E54" s="3">
         <v>549200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>651700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>684800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>656700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>645200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>627000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>584900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>622100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>651000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>519100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>521900</v>
       </c>
       <c r="O54" s="3">
         <v>521900</v>
       </c>
       <c r="P54" s="3">
+        <v>521900</v>
+      </c>
+      <c r="Q54" s="3">
         <v>475300</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,17 +3597,20 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3505,8 +3634,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3530,53 +3660,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E57" s="3">
         <v>29600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>28000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>24400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>31500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>24100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>28300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>27200</v>
       </c>
       <c r="O57" s="3">
         <v>27200</v>
       </c>
       <c r="P57" s="3">
+        <v>27200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>20400</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3586,62 +3717,65 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E58" s="3">
         <v>55400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>55700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>76600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>65900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>55400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>60200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>55700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>81500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>101600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>45000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>46100</v>
       </c>
       <c r="O58" s="3">
         <v>46100</v>
       </c>
       <c r="P58" s="3">
+        <v>46100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>19200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,62 +3785,65 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>15400</v>
       </c>
       <c r="O59" s="3">
         <v>15400</v>
       </c>
       <c r="P59" s="3">
+        <v>15400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>22800</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3716,62 +3853,65 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E60" s="3">
         <v>90700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>90600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>119300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>97700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>101800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>98100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>117900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>135100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>86800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>88700</v>
       </c>
       <c r="O60" s="3">
         <v>88700</v>
       </c>
       <c r="P60" s="3">
+        <v>88700</v>
+      </c>
+      <c r="Q60" s="3">
         <v>62400</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3781,62 +3921,65 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U60" s="3">
-        <v>0</v>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V60" s="3">
         <v>0</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>156200</v>
+      </c>
+      <c r="E61" s="3">
         <v>169700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>170100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>176200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>214800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>223500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>234000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>200600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>248200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>238300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>178200</v>
-      </c>
-      <c r="N61" s="3">
-        <v>154200</v>
       </c>
       <c r="O61" s="3">
         <v>154200</v>
       </c>
       <c r="P61" s="3">
+        <v>154200</v>
+      </c>
+      <c r="Q61" s="3">
         <v>108100</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3855,53 +3998,56 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="3">
         <v>1400</v>
       </c>
       <c r="F62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2000</v>
       </c>
       <c r="K62" s="3">
         <v>2000</v>
       </c>
       <c r="L62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M62" s="3">
         <v>1700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>2300</v>
       </c>
       <c r="O62" s="3">
         <v>2300</v>
       </c>
       <c r="P62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2500</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3911,17 +4057,20 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3985,8 +4134,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4050,8 +4202,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4115,53 +4270,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>227700</v>
+      </c>
+      <c r="E66" s="3">
         <v>261800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>262100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>297400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>314500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>325500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>338100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>347900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>409900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>417400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>267100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>245200</v>
       </c>
       <c r="O66" s="3">
         <v>245200</v>
       </c>
       <c r="P66" s="3">
+        <v>245200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>172900</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4171,17 +4329,20 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U66" s="3">
-        <v>0</v>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V66" s="3">
         <v>0</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4205,8 +4366,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4270,8 +4432,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4335,8 +4500,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4400,8 +4568,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4465,53 +4636,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-33200</v>
+        <v>-38000</v>
       </c>
       <c r="E72" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F72" s="3">
         <v>68800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>73100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>21500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-31700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-77500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-99800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-75500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-64400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-43900</v>
       </c>
       <c r="O72" s="3">
         <v>-43900</v>
       </c>
       <c r="P72" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4521,17 +4695,20 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U72" s="3">
-        <v>0</v>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V72" s="3">
         <v>0</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4595,8 +4772,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4660,8 +4840,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4725,53 +4908,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>282700</v>
+      </c>
+      <c r="E76" s="3">
         <v>287400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>389500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>387500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>342100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>319600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>289000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>236900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>212200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>233600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>251900</v>
-      </c>
-      <c r="N76" s="3">
-        <v>276700</v>
       </c>
       <c r="O76" s="3">
         <v>276700</v>
       </c>
       <c r="P76" s="3">
+        <v>276700</v>
+      </c>
+      <c r="Q76" s="3">
         <v>302400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4781,17 +4967,20 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V76" s="3">
         <v>0</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4855,61 +5044,64 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4925,56 +5117,59 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>22200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>56800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>29000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>52800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>44000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-28300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-24500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-19000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4990,8 +5185,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5015,56 +5213,57 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E83" s="3">
         <v>17200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>17200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>15700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>51500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>-23000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>48800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5080,8 +5279,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5145,8 +5347,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5210,8 +5415,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5275,8 +5483,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5340,8 +5551,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5405,56 +5619,59 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E89" s="3">
         <v>17700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>30500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>109300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>28500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>68300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>34500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>102100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>70400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>104400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-55600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-46200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5470,8 +5687,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5495,25 +5715,26 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5521,30 +5742,30 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5560,8 +5781,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5625,8 +5849,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5690,56 +5917,59 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>47400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-46600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>-22600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-60800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>35200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>33200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5755,8 +5985,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5780,26 +6013,27 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-97400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-16000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-8900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-13700</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -5845,8 +6079,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5910,8 +6147,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5975,8 +6215,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6040,56 +6283,59 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-112600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-48900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-51900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-29700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-87300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>30500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-82300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>-42000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-34600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>19400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>14700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>19500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6105,56 +6351,59 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-1000</v>
       </c>
       <c r="F101" s="3">
         <v>-1000</v>
       </c>
       <c r="G101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6170,56 +6419,59 @@
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>-94300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>56400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>28100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>20100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>5400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6800</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6233,6 +6485,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="92">
   <si>
     <t>GRIN</t>
   </si>
@@ -831,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>28800</v>
+        <v>69800</v>
       </c>
       <c r="E9" s="3">
         <v>58400</v>
@@ -899,7 +899,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>48000</v>
+        <v>7000</v>
       </c>
       <c r="E10" s="3">
         <v>23000</v>
@@ -1287,8 +1287,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>81000</v>
       </c>
       <c r="E17" s="3">
         <v>85600</v>
@@ -1355,8 +1355,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-4200</v>
       </c>
       <c r="E18" s="3">
         <v>-4200</v>
@@ -1449,8 +1449,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1517,8 +1517,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>11500</v>
       </c>
       <c r="E21" s="3">
         <v>13000</v>
@@ -1857,8 +1857,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-4300</v>
       </c>
       <c r="E26" s="3">
         <v>-4600</v>
@@ -1925,8 +1925,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-4300</v>
       </c>
       <c r="E27" s="3">
         <v>-4600</v>
@@ -2265,8 +2265,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2333,8 +2333,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-4300</v>
       </c>
       <c r="E33" s="3">
         <v>-4600</v>
@@ -2469,8 +2469,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-4300</v>
       </c>
       <c r="E35" s="3">
         <v>-4600</v>
@@ -5125,8 +5125,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-4300</v>
       </c>
       <c r="E81" s="3">
         <v>-4600</v>
@@ -6427,8 +6427,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-500</v>
       </c>
       <c r="E102" s="3">
         <v>-94300</v>

--- a/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="92">
   <si>
     <t>GRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,84 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
@@ -757,59 +758,62 @@
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E8" s="3">
         <v>76800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>81400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>107200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>161600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>110300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>89500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>135100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>178300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>68400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>112100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>167100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>163800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>167200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>150800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>194100</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
@@ -825,59 +829,62 @@
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>92600</v>
+      </c>
+      <c r="E9" s="3">
         <v>69800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>58400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>68700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>97000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>69600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>73200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>132900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>55800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>105900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>158200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>149200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>161300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>148400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>184300</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
@@ -893,59 +900,62 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E10" s="3">
         <v>7000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>38500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>64600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>40700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>66800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>61900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>45400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9800</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
@@ -961,8 +971,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -987,8 +1000,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,8 +1069,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1123,8 +1140,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1155,17 +1175,17 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>14600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
@@ -1182,8 +1202,8 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1191,8 +1211,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1223,18 +1246,18 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
         <v>600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>600</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1247,8 +1270,8 @@
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1259,8 +1282,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1282,59 +1308,60 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>103300</v>
+      </c>
+      <c r="E17" s="3">
         <v>81000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>85600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>85000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>104700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>81100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>31200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>85800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>147900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>65300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>140600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>179000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>188300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>185500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>162100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>199100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1350,59 +1377,62 @@
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4200</v>
+        <v>5800</v>
       </c>
       <c r="E18" s="3">
         <v>-4200</v>
       </c>
       <c r="F18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G18" s="3">
         <v>22200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>56900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>29200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>58300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>49300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>30400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-28500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-24500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1418,8 +1448,11 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1444,8 +1477,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1494,8 +1528,8 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1512,59 +1546,62 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E21" s="3">
         <v>11500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>38800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>73200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>46400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>74200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>65100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>60600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>23000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-34900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>24300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1580,8 +1617,11 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1648,59 +1688,62 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4200</v>
+        <v>5800</v>
       </c>
       <c r="E23" s="3">
         <v>-4200</v>
       </c>
       <c r="F23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G23" s="3">
         <v>22200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>56900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>29200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>58200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>49300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>30400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-28500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-24500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5100</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,59 +1759,62 @@
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1900</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1784,8 +1830,11 @@
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1852,59 +1901,62 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>22200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>56800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>29000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>56000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>49300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>30400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-28800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-24500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,59 +1972,62 @@
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>22200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>56800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>29000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>56000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>44200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-28300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-24500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7000</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1988,8 +2043,11 @@
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2056,49 +2114,52 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3">
         <v>-3200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-2800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>200</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2124,8 +2185,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2192,8 +2256,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2260,8 +2327,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2310,8 +2380,8 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2328,59 +2398,62 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>22200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>56800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>29000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>52800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>44000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-28300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-24500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7000</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2396,8 +2469,11 @@
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2464,59 +2540,62 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>22200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>56800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>29000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>52800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>44000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-28300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-24500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7000</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2532,64 +2611,67 @@
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2605,8 +2687,11 @@
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2631,8 +2716,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2657,56 +2743,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E41" s="3">
         <v>51800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>146300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>165400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>106500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>107100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>78500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>60700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>41300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>44700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>35600</v>
-      </c>
-      <c r="O41" s="3">
-        <v>37900</v>
       </c>
       <c r="P41" s="3">
         <v>37900</v>
       </c>
       <c r="Q41" s="3">
+        <v>37900</v>
+      </c>
+      <c r="R41" s="3">
         <v>54100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2716,17 +2803,20 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2793,56 +2883,59 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E43" s="3">
         <v>28600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>37700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>37000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>41300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>38600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>35100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>34400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>31000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>39200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>38900</v>
-      </c>
-      <c r="O43" s="3">
-        <v>45500</v>
       </c>
       <c r="P43" s="3">
         <v>45500</v>
       </c>
       <c r="Q43" s="3">
+        <v>45500</v>
+      </c>
+      <c r="R43" s="3">
         <v>72700</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2852,65 +2945,68 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E44" s="3">
         <v>10900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>15300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>18100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>20100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>16800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>12600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12200</v>
-      </c>
-      <c r="O44" s="3">
-        <v>8600</v>
       </c>
       <c r="P44" s="3">
         <v>8600</v>
       </c>
       <c r="Q44" s="3">
+        <v>8600</v>
+      </c>
+      <c r="R44" s="3">
         <v>10900</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2920,65 +3016,68 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4900</v>
-      </c>
-      <c r="O45" s="3">
-        <v>700</v>
       </c>
       <c r="P45" s="3">
         <v>700</v>
       </c>
       <c r="Q45" s="3">
+        <v>700</v>
+      </c>
+      <c r="R45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2988,65 +3087,68 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>123400</v>
+      </c>
+      <c r="E46" s="3">
         <v>91500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>105200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>203700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>229400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>172500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>161500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>131300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>106800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>82600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>95600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>91500</v>
-      </c>
-      <c r="O46" s="3">
-        <v>92700</v>
       </c>
       <c r="P46" s="3">
         <v>92700</v>
       </c>
       <c r="Q46" s="3">
+        <v>92700</v>
+      </c>
+      <c r="R46" s="3">
         <v>138900</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,65 +3158,68 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E47" s="3">
         <v>6400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4100</v>
-      </c>
-      <c r="J47" s="3">
-        <v>3200</v>
       </c>
       <c r="K47" s="3">
         <v>3200</v>
       </c>
       <c r="L47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M47" s="3">
         <v>3300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>55100</v>
-      </c>
-      <c r="O47" s="3">
-        <v>52100</v>
       </c>
       <c r="P47" s="3">
         <v>52100</v>
       </c>
       <c r="Q47" s="3">
+        <v>52100</v>
+      </c>
+      <c r="R47" s="3">
         <v>65300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3124,65 +3229,68 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>373200</v>
+      </c>
+      <c r="E48" s="3">
         <v>406700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>433600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>436200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>443800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>470100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>469900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>483600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>465900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>524400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>538600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>360400</v>
-      </c>
-      <c r="O48" s="3">
-        <v>355400</v>
       </c>
       <c r="P48" s="3">
         <v>355400</v>
       </c>
       <c r="Q48" s="3">
+        <v>355400</v>
+      </c>
+      <c r="R48" s="3">
         <v>262400</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3192,17 +3300,20 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3225,32 +3336,32 @@
         <v>200</v>
       </c>
       <c r="J49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K49" s="3">
         <v>300</v>
       </c>
       <c r="L49" s="3">
+        <v>300</v>
+      </c>
+      <c r="M49" s="3">
         <v>1400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1100</v>
-      </c>
-      <c r="O49" s="3">
-        <v>7600</v>
       </c>
       <c r="P49" s="3">
         <v>7600</v>
       </c>
       <c r="Q49" s="3">
+        <v>7600</v>
+      </c>
+      <c r="R49" s="3">
         <v>7700</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3260,17 +3371,20 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3337,8 +3451,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3405,56 +3522,59 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="E52" s="3">
         <v>5600</v>
       </c>
       <c r="F52" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G52" s="3">
         <v>6000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9400</v>
-      </c>
-      <c r="J52" s="3">
-        <v>8600</v>
       </c>
       <c r="K52" s="3">
         <v>8600</v>
       </c>
       <c r="L52" s="3">
+        <v>8600</v>
+      </c>
+      <c r="M52" s="3">
         <v>10400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10900</v>
-      </c>
-      <c r="O52" s="3">
-        <v>14200</v>
       </c>
       <c r="P52" s="3">
         <v>14200</v>
       </c>
       <c r="Q52" s="3">
+        <v>14200</v>
+      </c>
+      <c r="R52" s="3">
         <v>1000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3464,17 +3584,20 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3541,56 +3664,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>508700</v>
+      </c>
+      <c r="E54" s="3">
         <v>510400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>549200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>651700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>684800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>656700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>645200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>627000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>584900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>622100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>651000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>519100</v>
-      </c>
-      <c r="O54" s="3">
-        <v>521900</v>
       </c>
       <c r="P54" s="3">
         <v>521900</v>
       </c>
       <c r="Q54" s="3">
+        <v>521900</v>
+      </c>
+      <c r="R54" s="3">
         <v>475300</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3600,17 +3726,20 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W54" s="3">
         <v>0</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3635,8 +3764,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3661,56 +3791,57 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E57" s="3">
         <v>17700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>24400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>31500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>24100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>28300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>27200</v>
       </c>
       <c r="P57" s="3">
         <v>27200</v>
       </c>
       <c r="Q57" s="3">
+        <v>27200</v>
+      </c>
+      <c r="R57" s="3">
         <v>20400</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3720,65 +3851,68 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E58" s="3">
         <v>48500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>55400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>55700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>76600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>65900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>55400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>60200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>55700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>81500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>101600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>45000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>46100</v>
       </c>
       <c r="P58" s="3">
         <v>46100</v>
       </c>
       <c r="Q58" s="3">
+        <v>46100</v>
+      </c>
+      <c r="R58" s="3">
         <v>19200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3788,65 +3922,68 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>15400</v>
       </c>
       <c r="P59" s="3">
         <v>15400</v>
       </c>
       <c r="Q59" s="3">
+        <v>15400</v>
+      </c>
+      <c r="R59" s="3">
         <v>22800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3856,65 +3993,68 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E60" s="3">
         <v>70300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>90700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>90600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>119300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>97700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>101800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>98100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>117900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>135100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>86800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>88700</v>
       </c>
       <c r="P60" s="3">
         <v>88700</v>
       </c>
       <c r="Q60" s="3">
+        <v>88700</v>
+      </c>
+      <c r="R60" s="3">
         <v>62400</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3924,65 +4064,68 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V60" s="3">
-        <v>0</v>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W60" s="3">
         <v>0</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>144400</v>
+      </c>
+      <c r="E61" s="3">
         <v>156200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>169700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>170100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>176200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>214800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>223500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>234000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>200600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>248200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>238300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>178200</v>
-      </c>
-      <c r="O61" s="3">
-        <v>154200</v>
       </c>
       <c r="P61" s="3">
         <v>154200</v>
       </c>
       <c r="Q61" s="3">
+        <v>154200</v>
+      </c>
+      <c r="R61" s="3">
         <v>108100</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4001,56 +4144,59 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1400</v>
       </c>
       <c r="F62" s="3">
         <v>1400</v>
       </c>
       <c r="G62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2300</v>
-      </c>
-      <c r="K62" s="3">
-        <v>2000</v>
       </c>
       <c r="L62" s="3">
         <v>2000</v>
       </c>
       <c r="M62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N62" s="3">
         <v>1700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>2300</v>
       </c>
       <c r="P62" s="3">
         <v>2300</v>
       </c>
       <c r="Q62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R62" s="3">
         <v>2500</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4060,17 +4206,20 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4137,8 +4286,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4205,8 +4357,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4273,56 +4428,59 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>220900</v>
+      </c>
+      <c r="E66" s="3">
         <v>227700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>261800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>262100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>297400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>314500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>325500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>338100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>347900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>409900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>417400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>267100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>245200</v>
       </c>
       <c r="P66" s="3">
         <v>245200</v>
       </c>
       <c r="Q66" s="3">
+        <v>245200</v>
+      </c>
+      <c r="R66" s="3">
         <v>172900</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4332,17 +4490,20 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V66" s="3">
-        <v>0</v>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W66" s="3">
         <v>0</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4367,8 +4528,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4435,8 +4597,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4503,8 +4668,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4571,8 +4739,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4639,56 +4810,59 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-38000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>68800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>73100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>21500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-77500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-99800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-75500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-64400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-43900</v>
       </c>
       <c r="P72" s="3">
         <v>-43900</v>
       </c>
       <c r="Q72" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="R72" s="3">
         <v>-19600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4698,17 +4872,20 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V72" s="3">
-        <v>0</v>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W72" s="3">
         <v>0</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4775,8 +4952,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4843,8 +5023,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4911,56 +5094,59 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>287800</v>
+      </c>
+      <c r="E76" s="3">
         <v>282700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>287400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>389500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>387500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>342100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>319600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>289000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>236900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>212200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>233600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>251900</v>
-      </c>
-      <c r="O76" s="3">
-        <v>276700</v>
       </c>
       <c r="P76" s="3">
         <v>276700</v>
       </c>
       <c r="Q76" s="3">
+        <v>276700</v>
+      </c>
+      <c r="R76" s="3">
         <v>302400</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4970,17 +5156,20 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W76" s="3">
         <v>0</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5047,64 +5236,67 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5120,59 +5312,62 @@
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>22200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>56800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>29000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>52800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>44000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-28300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-24500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7000</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5188,8 +5383,11 @@
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5214,59 +5412,60 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E83" s="3">
         <v>15700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>17200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>17200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>15700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>51500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>-23000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>48800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10200</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5282,8 +5481,11 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5350,8 +5552,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5418,8 +5623,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5486,8 +5694,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5554,8 +5765,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5622,59 +5836,62 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E89" s="3">
         <v>27800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>30500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>109300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>28500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>68300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>34500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>102100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
         <v>70400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>104400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-55600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-46200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5690,8 +5907,11 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5716,19 +5936,20 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -5737,7 +5958,7 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5745,30 +5966,30 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5784,8 +6005,11 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5852,8 +6076,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5920,59 +6147,62 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>47400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-46600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
         <v>-22600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-60800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>35200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>33200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5988,8 +6218,11 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6014,8 +6247,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6023,20 +6257,20 @@
         <v>-600</v>
       </c>
       <c r="E96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-97400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-16000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-8900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-13700</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -6082,8 +6316,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6150,8 +6387,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6218,8 +6458,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6286,59 +6529,62 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-28000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-112600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-48900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-51900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-29700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-87300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>30500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-82300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>-42000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-34600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>19400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>14700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>19500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6354,59 +6600,62 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-1000</v>
       </c>
       <c r="G101" s="3">
         <v>-1000</v>
       </c>
       <c r="H101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6422,59 +6671,62 @@
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-94300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>56400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>28100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>20100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
         <v>5400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6800</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6488,6 +6740,9 @@
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
